--- a/data/trans_dic/P25A_8_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_8_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida</t>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,12</t>
+          <t>0,53; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,52</t>
+          <t>1,65; 7,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,53</t>
+          <t>1,88; 9,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,89</t>
+          <t>4,27; 14,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,64</t>
+          <t>2,64; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,01</t>
+          <t>2,7; 8,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,77</t>
+          <t>2,9; 10,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,47</t>
+          <t>6,47; 15,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,36</t>
+          <t>1,96; 6,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 7,05</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 7,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 12,85</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,49</t>
+          <t>1,51; 8,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,77</t>
+          <t>1,25; 8,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,43</t>
+          <t>2,11; 15,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 7,57</t>
+          <t>3,21; 13,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,73</t>
+          <t>0,53; 5,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 14,15</t>
+          <t>1,88; 8,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,64</t>
+          <t>2,86; 9,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,48</t>
+          <t>4,03; 12,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,79</t>
+          <t>1,4; 5,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 7,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 9,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 11,49</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,84</t>
+          <t>0,0; 27,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,18</t>
+          <t>0,0; 15,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 15,98</t>
+          <t>0,0; 32,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 15,09</t>
+          <t>0,0; 14,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,98</t>
+          <t>2,57; 22,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 19,06</t>
+          <t>0,0; 19,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,13</t>
+          <t>5,24; 29,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,15</t>
+          <t>6,48; 33,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 14,38</t>
+          <t>1,95; 16,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 12,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 21,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 20,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,13%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,49</t>
+          <t>1,56; 5,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,24</t>
+          <t>1,93; 5,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,65</t>
+          <t>2,85; 9,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,74</t>
+          <t>4,44; 11,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,48</t>
+          <t>2,66; 6,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,88</t>
+          <t>3,36; 7,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,21</t>
+          <t>4,22; 9,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,83</t>
+          <t>7,35; 13,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,94</t>
+          <t>2,53; 5,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 6,02</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 8,17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 11,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8132</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13280</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16176</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41339</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25802</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21642</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23313</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>59127</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33934</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34922</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>39489</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>100466</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2281; 25508</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6042; 28951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7163; 35344</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22017; 73095</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13403; 43653</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11193; 35277</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11808; 42874</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36485; 85912</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18403; 56605</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22061; 55065</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23980; 62417</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68911; 138712</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14337</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12294</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18080</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30616</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8593</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16010</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18789</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29793</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22930</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28304</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36869</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>60409</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5375; 31393</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3968; 25979</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6820; 49228</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13239; 57029</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2246; 21527</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6356; 29413</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9588; 32922</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16291; 50032</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10938; 42643</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14864; 47086</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21901; 64877</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39282; 93884</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7312</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2371</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6435</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3249</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8059</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5094</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11196</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18408</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15372</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7465</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17631</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21657</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 26904</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12615</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25808</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17685</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2538; 21959</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15614</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4325; 24020</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7211; 37561</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3864; 32587</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2075; 20453</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7033; 34223</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8300; 47010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29781</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27945</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40690</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75203</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>42454</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42747</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53298</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>107329</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>72236</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70691</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>93988</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>182532</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13833; 49960</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14727; 45574</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22291; 70970</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46538; 115945</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27346; 64477</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28098; 61299</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>34833; 75503</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>79365; 145797</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48457; 101968</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50725; 96315</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>67475; 131301</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>139682; 240093</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
